--- a/코로나/월별_코로나정보 데이터_전처리 후.xlsx
+++ b/코로나/월별_코로나정보 데이터_전처리 후.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:2/Movie_Project/코로나/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\movie_project\코로나\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC20132-AF6C-EB42-A1F9-F64CD354ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="전처리" sheetId="2" r:id="rId1"/>
+    <sheet name="원본" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Group_Year_Month</t>
   </si>
@@ -152,12 +151,88 @@
   <si>
     <t>202206</t>
   </si>
+  <si>
+    <t>확진자 수(총합) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확진자 수(평균) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리해제 수(총합) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리해제 수(평균) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망자 수(총합) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망자 수(평균) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료자 수(총합) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확진자 수(총합) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료자 수(평균) 중감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확진자 수(평균) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리해제 수(총합) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리해제 수(평균) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망자 수(총합) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망자 수(평균) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료자 수(총합) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료자 수(평균) 중감률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자 물가 지수(2020 = 100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자 물가 지수 전원 대비 증감율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0.000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +290,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -523,48 +608,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003BB02F-675F-3045-8278-74278231C9AC}">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>201801</v>
       </c>
@@ -592,8 +715,38 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>98.105999999999995</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>201802</v>
       </c>
@@ -621,8 +774,38 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>98.855000000000004</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>201803</v>
       </c>
@@ -650,8 +833,38 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>98.751000000000005</v>
+      </c>
+      <c r="S4" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>201804</v>
       </c>
@@ -679,8 +892,38 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>98.930999999999997</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>201805</v>
       </c>
@@ -708,8 +951,38 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>98.978999999999999</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>201806</v>
       </c>
@@ -737,8 +1010,38 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>98.778999999999996</v>
+      </c>
+      <c r="S7" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>201807</v>
       </c>
@@ -766,8 +1069,38 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>98.59</v>
+      </c>
+      <c r="S8" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>201808</v>
       </c>
@@ -795,8 +1128,38 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>99.462000000000003</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>201809</v>
       </c>
@@ -824,8 +1187,38 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>100.221</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>201810</v>
       </c>
@@ -853,8 +1246,38 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>100.041</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>201811</v>
       </c>
@@ -882,8 +1305,38 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>99.33</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>201812</v>
       </c>
@@ -911,8 +1364,38 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>98.988</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>201901</v>
       </c>
@@ -940,8 +1423,38 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>98.884</v>
+      </c>
+      <c r="S14" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>201902</v>
       </c>
@@ -969,8 +1482,38 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>99.311000000000007</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>201903</v>
       </c>
@@ -998,8 +1541,38 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>99.120999999999995</v>
+      </c>
+      <c r="S16" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>201904</v>
       </c>
@@ -1027,8 +1600,38 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>201905</v>
       </c>
@@ -1056,8 +1659,38 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>99.652000000000001</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>201906</v>
       </c>
@@ -1085,8 +1718,38 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>99.491</v>
+      </c>
+      <c r="S19" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>201907</v>
       </c>
@@ -1114,8 +1777,38 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>99.186999999999998</v>
+      </c>
+      <c r="S20" s="7">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>201908</v>
       </c>
@@ -1143,8 +1836,38 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>99.424999999999997</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>201909</v>
       </c>
@@ -1172,8 +1895,38 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>99.793999999999997</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>201910</v>
       </c>
@@ -1201,8 +1954,38 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>100.041</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>201911</v>
       </c>
@@ -1230,8 +2013,38 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="S24" s="7">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>201912</v>
       </c>
@@ -1259,8 +2072,38 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>99.718999999999994</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1288,8 +2131,38 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>100.09</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1317,8 +2190,38 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>100.16</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1346,8 +2249,38 @@
       <c r="I28">
         <v>5606.333333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="4">
+        <v>9.9633476394849794</v>
+      </c>
+      <c r="K28" s="4">
+        <v>17.936691377292235</v>
+      </c>
+      <c r="L28" s="4">
+        <v>94.947702060221872</v>
+      </c>
+      <c r="M28" s="4">
+        <v>164.72784901311056</v>
+      </c>
+      <c r="N28" s="4">
+        <v>16.259493670886076</v>
+      </c>
+      <c r="O28" s="4">
+        <v>28.81185270425776</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>99.94</v>
+      </c>
+      <c r="S28" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1375,8 +2308,38 @@
       <c r="I29">
         <v>-2912.484848484848</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4">
+        <v>0.36566632478097133</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.36566632478097089</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3.1752638620484612</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3.1752638620484608</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.6307297396406308</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1.6307297396406306</v>
+      </c>
+      <c r="P29" s="4">
+        <v>-0.51949905139749963</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>-0.51949905139749952</v>
+      </c>
+      <c r="R29" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="S29" s="7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1404,8 +2367,38 @@
       <c r="I30">
         <v>-1738.2355816226786</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="4">
+        <v>-1.8987886049751473E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>4.4303218076071516E-2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.20468939762563146</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.28241129424663991</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.12642877056035684</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.19910159446747663</v>
+      </c>
+      <c r="P30" s="4">
+        <v>-0.66676040811275972</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>-0.64526107960390555</v>
+      </c>
+      <c r="R30" s="6">
+        <v>99.44</v>
+      </c>
+      <c r="S30" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +2426,38 @@
       <c r="I31">
         <v>113.68709677419349</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="4">
+        <v>6.4950471904859308E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.10044882096835443</v>
+      </c>
+      <c r="L31" s="4">
+        <v>6.4126098021508912E-2</v>
+      </c>
+      <c r="M31" s="4">
+        <v>9.9596967955559584E-2</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3.0318029946788765E-2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>6.4661964278348666E-2</v>
+      </c>
+      <c r="P31" s="4">
+        <v>8.287199567917905E-2</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.11896772886848495</v>
+      </c>
+      <c r="R31" s="6">
+        <v>99.71</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -1462,8 +2485,38 @@
       <c r="I32">
         <v>-141.71935483870959</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="4">
+        <v>0.15770541461567589</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.12036007866033117</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.18542954393262831</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.147189881225124</v>
+      </c>
+      <c r="N32" s="4">
+        <v>8.551525342301225E-2</v>
+      </c>
+      <c r="O32" s="4">
+        <v>5.0498632344850296E-2</v>
+      </c>
+      <c r="P32" s="4">
+        <v>-0.10361919012438044</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>-0.13253470012036808</v>
+      </c>
+      <c r="R32" s="6">
+        <v>99.63</v>
+      </c>
+      <c r="S32" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -1491,8 +2544,38 @@
       <c r="I33">
         <v>931.29032258064456</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="4">
+        <v>0.18407574626423501</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.18407574626423509</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.12573996074368332</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.12573996074368285</v>
+      </c>
+      <c r="N33" s="4">
+        <v>5.4879398096924097E-2</v>
+      </c>
+      <c r="O33" s="4">
+        <v>5.4879398096924097E-2</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1.003999304468788</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1.0039993044687874</v>
+      </c>
+      <c r="R33" s="6">
+        <v>100.19</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -1520,8 +2603,38 @@
       <c r="I34">
         <v>1382.1956989247321</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="4">
+        <v>0.33998995202190541</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.384656283755969</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.29783740784934004</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.34109865477765189</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.15261170547514161</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.19103209565764631</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.6873232104121475</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0.74356731742588644</v>
+      </c>
+      <c r="R34" s="6">
+        <v>100.74</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1549,8 +2662,38 @@
       <c r="I35">
         <v>-1668.7440860215061</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="4">
+        <v>0.16166091329916665</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.1241879806120969</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.27447161830369077</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.23335963061647488</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.24306124306124305</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.20296249328507399</v>
+      </c>
+      <c r="P35" s="4">
+        <v>-0.49870413032746419</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>-0.51487496483303008</v>
+      </c>
+      <c r="R35" s="6">
+        <v>100.18</v>
+      </c>
+      <c r="S35" s="7">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1578,8 +2721,38 @@
       <c r="I36">
         <v>1471.1440860215062</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="4">
+        <v>0.13233053315657031</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.1700748842617891</v>
+      </c>
+      <c r="L36" s="4">
+        <v>8.2745806927848539E-2</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.11883733382544331</v>
+      </c>
+      <c r="N36" s="4">
+        <v>8.5139092240117134E-2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.12131039531478766</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.87320996266053919</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0.93565029474922445</v>
+      </c>
+      <c r="R36" s="6">
+        <v>100.09</v>
+      </c>
+      <c r="S36" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -1607,8 +2780,38 @@
       <c r="I37">
         <v>8895.048484848483</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="4">
+        <v>0.73001166248959515</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.5727378749905413</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.43059418392354037</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.30054016720321852</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.45186534439722054</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.3198775858156549</v>
+      </c>
+      <c r="P37" s="4">
+        <v>3.3149369140453868</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>2.9226699218594416</v>
+      </c>
+      <c r="R37" s="6">
+        <v>100.33</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -1636,8 +2839,38 @@
       <c r="I38">
         <v>2140.0365726227792</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="4">
+        <v>0.34428041616068789</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.52969840459664486</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.44862891914675468</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.64843980454630712</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0.60986942985920733</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0.83192038570185689</v>
+      </c>
+      <c r="P38" s="4">
+        <v>3.6314855661964969E-2</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0.17925483575327048</v>
+      </c>
+      <c r="R38" s="6">
+        <v>101.04</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1665,8 +2898,38 @@
       <c r="I39">
         <v>-5916.4445812807862</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="4">
+        <v>0.14873062935314638</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.18975672325861592</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.29686545962044086</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.34318208317831378</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0.22675056283553657</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0.27056308293680531</v>
+      </c>
+      <c r="P39" s="4">
+        <v>-0.44023679943567862</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>-0.42024525655838135</v>
+      </c>
+      <c r="R39" s="6">
+        <v>101.58</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +2957,38 @@
       <c r="I40">
         <v>-1267.0426267281109</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="4">
+        <v>0.2707695015081597</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.1477918078138217</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0.30862481053281415</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.18198369983609014</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0.22083666650981129</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0.10269118265402316</v>
+      </c>
+      <c r="P40" s="4">
+        <v>-6.4724182743426728E-2</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>-0.1552347457037403</v>
+      </c>
+      <c r="R40" s="6">
+        <v>101.84</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -1723,8 +3016,38 @@
       <c r="I41">
         <v>931.72858731924407</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="4">
+        <v>8.8153961273524178E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.16319906205100862</v>
+      </c>
+      <c r="L41" s="4">
+        <v>9.1963129282468928E-2</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.1672709313019497</v>
+      </c>
+      <c r="N41" s="4">
+        <v>-3.6424606845513415E-3</v>
+      </c>
+      <c r="O41" s="4">
+        <v>6.5071852371686362E-2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>6.189560555235863E-2</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0.1351297852456248</v>
+      </c>
+      <c r="R41" s="6">
+        <v>101.98</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -1752,8 +3075,38 @@
       <c r="I42">
         <v>289.65850945494913</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="4">
+        <v>0.25383714460494239</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.17294442559817169</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.2669387444971984</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0.18520076098124963</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0.13802974912474128</v>
+      </c>
+      <c r="O42" s="4">
+        <v>6.4608474987661688E-2</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0.10852641457063932</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>3.7008581372533447E-2</v>
+      </c>
+      <c r="R42" s="6">
+        <v>102.05</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1781,8 +3134,38 @@
       <c r="I43">
         <v>-1084.2182795698918</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="4">
+        <v>9.5410682501311656E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.13192437191802245</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.11381775964440906</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.15094501829922274</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1.5263023710376477E-2</v>
+      </c>
+      <c r="O43" s="4">
+        <v>4.9105124500722137E-2</v>
+      </c>
+      <c r="P43" s="4">
+        <v>-0.16153173562259052</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>-0.13358279347667679</v>
+      </c>
+      <c r="R43" s="6">
+        <v>102.05</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1810,8 +3193,38 @@
       <c r="I44">
         <v>8220.5666666666657</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="4">
+        <v>0.18277330061461738</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.18277330061461725</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.13535923119789636</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.13535923119789697</v>
+      </c>
+      <c r="N44" s="4">
+        <v>3.1305978269968025E-2</v>
+      </c>
+      <c r="O44" s="4">
+        <v>3.1305978269967873E-2</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1.1689837747135807</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>1.1689837747135807</v>
+      </c>
+      <c r="R44" s="6">
+        <v>102.26</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1839,8 +3252,38 @@
       <c r="I45">
         <v>10637.329032258061</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="4">
+        <v>0.32214121342138524</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.27949149685940511</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.28360162705354236</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.24219512295504078</v>
+      </c>
+      <c r="N45" s="4">
+        <v>9.5758323458273134E-2</v>
+      </c>
+      <c r="O45" s="4">
+        <v>6.0411280766070989E-2</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.75398178257981052</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0.69740172507723575</v>
+      </c>
+      <c r="R45" s="6">
+        <v>102.75</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1868,8 +3311,38 @@
       <c r="I46">
         <v>1707.1302270011984</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="4">
+        <v>8.3543127653319699E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.24406803545381142</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.1053351154979331</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.26908846594207092</v>
+      </c>
+      <c r="N46" s="4">
+        <v>-4.6531954608752334E-2</v>
+      </c>
+      <c r="O46" s="4">
+        <v>9.4722570634395528E-2</v>
+      </c>
+      <c r="P46" s="4">
+        <v>-7.1602827830758761E-2</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>6.5937493972091935E-2</v>
+      </c>
+      <c r="R46" s="6">
+        <v>103.17</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1897,8 +3370,38 @@
       <c r="I47">
         <v>2219.026455026451</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="4">
+        <v>0.25720255331132397</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.21230246212163378</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.27324255006225939</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.22776960184575076</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.15571541772191233</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0.1144398670889868</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0.12042258624715819</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>8.0407493881188119E-2</v>
+      </c>
+      <c r="R47" s="6">
+        <v>103.35</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1926,8 +3429,38 @@
       <c r="I48">
         <v>5246.2698412698373</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="4">
+        <v>0.14275441939767131</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.18507865715314062</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.14352455839084405</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.18587731981272693</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0.15238697014102684</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0.19506796903513904</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0.13395483772051708</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0.17595316504349909</v>
+      </c>
+      <c r="R48" s="6">
+        <v>103.87</v>
+      </c>
+      <c r="S48" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1955,8 +3488,38 @@
       <c r="I49">
         <v>-32929.67555555555</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="4">
+        <v>0.2816654426380471</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0.38419867804909086</v>
+      </c>
+      <c r="L49" s="4">
+        <v>-0.95930769703517127</v>
+      </c>
+      <c r="M49" s="4">
+        <v>-0.95605231279798497</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0.36978230943325791</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0.47936489418791856</v>
+      </c>
+      <c r="P49" s="4">
+        <v>-0.9436752724495584</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>-0.93916929424552309</v>
+      </c>
+      <c r="R49" s="6">
+        <v>104.04</v>
+      </c>
+      <c r="S49" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1984,8 +3547,38 @@
       <c r="I50">
         <v>-2132.88</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="4">
+        <v>0.47652811155397806</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.27286906168446368</v>
+      </c>
+      <c r="L50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0.5535919601413789</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0.33930341391498164</v>
+      </c>
+      <c r="P50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="6">
+        <v>104.69</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2013,8 +3606,38 @@
       <c r="I51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="4">
+        <v>0.88758153517879201</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.4881756600084073</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>-0.12017103856590741</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0.15977454007221298</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>105.3</v>
+      </c>
+      <c r="S51" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2042,8 +3665,38 @@
       <c r="I52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="4">
+        <v>3.9929390895352417</v>
+      </c>
+      <c r="K52" s="4">
+        <v>3.3937863987910135</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0.78506984684785719</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0.57086146522611436</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <v>106.06</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2071,8 +3724,38 @@
       <c r="I53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="4">
+        <v>1.4467374491179692</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1.0389478742649745</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.1256959157815374</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0.77141326315128145</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" s="6">
+        <v>106.85</v>
+      </c>
+      <c r="S53" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2100,8 +3783,38 @@
       <c r="I54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="4">
+        <v>0.16017200486623506</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.12274710148345347</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0.20454287952157399</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0.16568665760152304</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" s="6">
+        <v>107.56</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2128,6 +3841,36 @@
       </c>
       <c r="I55">
         <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>-7.2207776026966985E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2.7198533684429146E-2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>-6.8887062188251039E-2</v>
+      </c>
+      <c r="O55" s="4">
+        <v>3.0875038291579185E-2</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" s="6">
+        <v>108.22</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2137,23 +3880,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +3925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2211,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2333,7 +4076,7 @@
         <v>5606.333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2394,7 +4137,7 @@
         <v>-2912.484848484848</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2455,7 +4198,7 @@
         <v>-1738.2355816226786</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2516,7 +4259,7 @@
         <v>113.68709677419349</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +4320,7 @@
         <v>-141.71935483870959</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2638,7 +4381,7 @@
         <v>931.29032258064456</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +4442,7 @@
         <v>1382.1956989247321</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2760,7 +4503,7 @@
         <v>-1668.7440860215061</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2821,7 +4564,7 @@
         <v>1471.1440860215062</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +4625,7 @@
         <v>8895.048484848483</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2943,7 +4686,7 @@
         <v>2140.0365726227792</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +4747,7 @@
         <v>-5916.4445812807862</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3065,7 +4808,7 @@
         <v>-1267.0426267281109</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3126,7 +4869,7 @@
         <v>931.72858731924407</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -3187,7 +4930,7 @@
         <v>289.65850945494913</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +4991,7 @@
         <v>-1084.2182795698918</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -3309,7 +5052,7 @@
         <v>8220.5666666666657</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -3370,7 +5113,7 @@
         <v>10637.329032258061</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -3431,7 +5174,7 @@
         <v>1707.1302270011984</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3492,7 +5235,7 @@
         <v>2219.026455026451</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3553,7 +5296,7 @@
         <v>5246.2698412698373</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3614,7 +5357,7 @@
         <v>-32929.67555555555</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -3675,7 +5418,7 @@
         <v>-2132.88</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3736,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -3797,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -3858,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -3919,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>

--- a/코로나/월별_코로나정보 데이터_전처리 후.xlsx
+++ b/코로나/월별_코로나정보 데이터_전처리 후.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\movie_project\코로나\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:2/Movie_Project/코로나/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F1280-69B1-CA44-B8D4-D65FB4499480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="36500" yWindow="-1400" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전처리" sheetId="2" r:id="rId1"/>
     <sheet name="원본" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -227,12 +228,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="#,##0.000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,21 +291,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -608,27 +608,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +687,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:19">
+      <c r="A2" s="2">
         <v>201801</v>
       </c>
       <c r="B2">
@@ -739,15 +739,15 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>98.105999999999995</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:19">
+      <c r="A3" s="2">
         <v>201802</v>
       </c>
       <c r="B3">
@@ -798,15 +798,15 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>98.855000000000004</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:19">
+      <c r="A4" s="2">
         <v>201803</v>
       </c>
       <c r="B4">
@@ -857,15 +857,15 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>98.751000000000005</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
         <v>201804</v>
       </c>
       <c r="B5">
@@ -916,15 +916,15 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>98.930999999999997</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:19">
+      <c r="A6" s="2">
         <v>201805</v>
       </c>
       <c r="B6">
@@ -975,15 +975,15 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>98.978999999999999</v>
       </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="2">
         <v>201806</v>
       </c>
       <c r="B7">
@@ -1034,15 +1034,15 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>98.778999999999996</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:19">
+      <c r="A8" s="2">
         <v>201807</v>
       </c>
       <c r="B8">
@@ -1093,15 +1093,15 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>98.59</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:19">
+      <c r="A9" s="2">
         <v>201808</v>
       </c>
       <c r="B9">
@@ -1152,15 +1152,15 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>99.462000000000003</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:19">
+      <c r="A10" s="2">
         <v>201809</v>
       </c>
       <c r="B10">
@@ -1211,15 +1211,15 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>100.221</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:19">
+      <c r="A11" s="2">
         <v>201810</v>
       </c>
       <c r="B11">
@@ -1270,15 +1270,15 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>100.041</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
         <v>201811</v>
       </c>
       <c r="B12">
@@ -1329,15 +1329,15 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>99.33</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:19">
+      <c r="A13" s="2">
         <v>201812</v>
       </c>
       <c r="B13">
@@ -1388,15 +1388,15 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>98.988</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:19">
+      <c r="A14" s="2">
         <v>201901</v>
       </c>
       <c r="B14">
@@ -1447,15 +1447,15 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>98.884</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:19">
+      <c r="A15" s="2">
         <v>201902</v>
       </c>
       <c r="B15">
@@ -1506,15 +1506,15 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>99.311000000000007</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:19">
+      <c r="A16" s="2">
         <v>201903</v>
       </c>
       <c r="B16">
@@ -1565,15 +1565,15 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>99.120999999999995</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:19">
+      <c r="A17" s="2">
         <v>201904</v>
       </c>
       <c r="B17">
@@ -1624,15 +1624,15 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <v>99.480999999999995</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:19">
+      <c r="A18" s="2">
         <v>201905</v>
       </c>
       <c r="B18">
@@ -1683,15 +1683,15 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>99.652000000000001</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:19">
+      <c r="A19" s="2">
         <v>201906</v>
       </c>
       <c r="B19">
@@ -1742,15 +1742,15 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>99.491</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:19">
+      <c r="A20" s="2">
         <v>201907</v>
       </c>
       <c r="B20">
@@ -1801,15 +1801,15 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>99.186999999999998</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:19">
+      <c r="A21" s="2">
         <v>201908</v>
       </c>
       <c r="B21">
@@ -1860,15 +1860,15 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <v>99.424999999999997</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:19">
+      <c r="A22" s="2">
         <v>201909</v>
       </c>
       <c r="B22">
@@ -1919,15 +1919,15 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>99.793999999999997</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:19">
+      <c r="A23" s="2">
         <v>201910</v>
       </c>
       <c r="B23">
@@ -1978,15 +1978,15 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <v>100.041</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:19">
+      <c r="A24" s="2">
         <v>201911</v>
       </c>
       <c r="B24">
@@ -2037,15 +2037,15 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <v>99.480999999999995</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:19">
+      <c r="A25" s="2">
         <v>201912</v>
       </c>
       <c r="B25">
@@ -2096,15 +2096,15 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="4">
         <v>99.718999999999994</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26">
@@ -2155,15 +2155,15 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="5">
         <v>100.09</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
@@ -2214,15 +2214,15 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="5">
         <v>100.16</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28">
@@ -2249,22 +2249,22 @@
       <c r="I28">
         <v>5606.333333333333</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>9.9633476394849794</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>17.936691377292235</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>94.947702060221872</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>164.72784901311056</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>16.259493670886076</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>28.81185270425776</v>
       </c>
       <c r="P28">
@@ -2273,15 +2273,15 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="5">
         <v>99.94</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29">
@@ -2308,39 +2308,39 @@
       <c r="I29">
         <v>-2912.484848484848</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>0.36566632478097133</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>0.36566632478097089</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>3.1752638620484612</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>3.1752638620484608</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>1.6307297396406308</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>1.6307297396406306</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>-0.51949905139749963</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <v>-0.51949905139749952</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="5">
         <v>99.5</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="6">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30">
@@ -2367,39 +2367,39 @@
       <c r="I30">
         <v>-1738.2355816226786</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>-1.8987886049751473E-2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>4.4303218076071516E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>0.20468939762563146</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>0.28241129424663991</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>0.12642877056035684</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>0.19910159446747663</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>-0.66676040811275972</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <v>-0.64526107960390555</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="5">
         <v>99.44</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31">
@@ -2426,39 +2426,39 @@
       <c r="I31">
         <v>113.68709677419349</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>6.4950471904859308E-2</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>0.10044882096835443</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>6.4126098021508912E-2</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>9.9596967955559584E-2</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>3.0318029946788765E-2</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>6.4661964278348666E-2</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>8.287199567917905E-2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <v>0.11896772886848495</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="5">
         <v>99.71</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32">
@@ -2485,39 +2485,39 @@
       <c r="I32">
         <v>-141.71935483870959</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>0.15770541461567589</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>0.12036007866033117</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>0.18542954393262831</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>0.147189881225124</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>8.551525342301225E-2</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>5.0498632344850296E-2</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <v>-0.10361919012438044</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="3">
         <v>-0.13253470012036808</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="5">
         <v>99.63</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33">
@@ -2544,39 +2544,39 @@
       <c r="I33">
         <v>931.29032258064456</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>0.18407574626423501</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>0.18407574626423509</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>0.12573996074368332</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>0.12573996074368285</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>5.4879398096924097E-2</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>5.4879398096924097E-2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>1.003999304468788</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="3">
         <v>1.0039993044687874</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="5">
         <v>100.19</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34">
@@ -2603,39 +2603,39 @@
       <c r="I34">
         <v>1382.1956989247321</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>0.33998995202190541</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>0.384656283755969</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <v>0.29783740784934004</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <v>0.34109865477765189</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>0.15261170547514161</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>0.19103209565764631</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <v>0.6873232104121475</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <v>0.74356731742588644</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="5">
         <v>100.74</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35">
@@ -2662,39 +2662,39 @@
       <c r="I35">
         <v>-1668.7440860215061</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>0.16166091329916665</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>0.1241879806120969</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>0.27447161830369077</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>0.23335963061647488</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>0.24306124306124305</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>0.20296249328507399</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <v>-0.49870413032746419</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <v>-0.51487496483303008</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="5">
         <v>100.18</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="6">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36">
@@ -2721,39 +2721,39 @@
       <c r="I36">
         <v>1471.1440860215062</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <v>0.13233053315657031</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <v>0.1700748842617891</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="3">
         <v>8.2745806927848539E-2</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <v>0.11883733382544331</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>8.5139092240117134E-2</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="3">
         <v>0.12131039531478766</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="3">
         <v>0.87320996266053919</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="3">
         <v>0.93565029474922445</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="5">
         <v>100.09</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37">
@@ -2780,39 +2780,39 @@
       <c r="I37">
         <v>8895.048484848483</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>0.73001166248959515</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>0.5727378749905413</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <v>0.43059418392354037</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>0.30054016720321852</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>0.45186534439722054</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <v>0.3198775858156549</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <v>3.3149369140453868</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="3">
         <v>2.9226699218594416</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="5">
         <v>100.33</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
         <v>21</v>
       </c>
       <c r="B38">
@@ -2839,39 +2839,39 @@
       <c r="I38">
         <v>2140.0365726227792</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <v>0.34428041616068789</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <v>0.52969840459664486</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <v>0.44862891914675468</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <v>0.64843980454630712</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <v>0.60986942985920733</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>0.83192038570185689</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="3">
         <v>3.6314855661964969E-2</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="3">
         <v>0.17925483575327048</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="5">
         <v>101.04</v>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
       <c r="B39">
@@ -2898,39 +2898,39 @@
       <c r="I39">
         <v>-5916.4445812807862</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>0.14873062935314638</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <v>0.18975672325861592</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <v>0.29686545962044086</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <v>0.34318208317831378</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>0.22675056283553657</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <v>0.27056308293680531</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
         <v>-0.44023679943567862</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="3">
         <v>-0.42024525655838135</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="5">
         <v>101.58</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
       <c r="B40">
@@ -2957,39 +2957,39 @@
       <c r="I40">
         <v>-1267.0426267281109</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>0.2707695015081597</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <v>0.1477918078138217</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <v>0.30862481053281415</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <v>0.18198369983609014</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>0.22083666650981129</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>0.10269118265402316</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <v>-6.4724182743426728E-2</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="3">
         <v>-0.1552347457037403</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="5">
         <v>101.84</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
         <v>24</v>
       </c>
       <c r="B41">
@@ -3016,39 +3016,39 @@
       <c r="I41">
         <v>931.72858731924407</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>8.8153961273524178E-2</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <v>0.16319906205100862</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="3">
         <v>9.1963129282468928E-2</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <v>0.1672709313019497</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>-3.6424606845513415E-3</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <v>6.5071852371686362E-2</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="3">
         <v>6.189560555235863E-2</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="3">
         <v>0.1351297852456248</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="5">
         <v>101.98</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
         <v>25</v>
       </c>
       <c r="B42">
@@ -3075,38 +3075,38 @@
       <c r="I42">
         <v>289.65850945494913</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>0.25383714460494239</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>0.17294442559817169</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="3">
         <v>0.2669387444971984</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="3">
         <v>0.18520076098124963</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>0.13802974912474128</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <v>6.4608474987661688E-2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="3">
         <v>0.10852641457063932</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="3">
         <v>3.7008581372533447E-2</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="5">
         <v>102.05</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3134,38 +3134,38 @@
       <c r="I43">
         <v>-1084.2182795698918</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>9.5410682501311656E-2</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <v>0.13192437191802245</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="3">
         <v>0.11381775964440906</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="3">
         <v>0.15094501829922274</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>1.5263023710376477E-2</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <v>4.9105124500722137E-2</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="3">
         <v>-0.16153173562259052</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="3">
         <v>-0.13358279347667679</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="5">
         <v>102.05</v>
       </c>
-      <c r="S43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -3193,38 +3193,38 @@
       <c r="I44">
         <v>8220.5666666666657</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>0.18277330061461738</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>0.18277330061461725</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="3">
         <v>0.13535923119789636</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="3">
         <v>0.13535923119789697</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <v>3.1305978269968025E-2</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <v>3.1305978269967873E-2</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="3">
         <v>1.1689837747135807</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="3">
         <v>1.1689837747135807</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="5">
         <v>102.26</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -3252,38 +3252,38 @@
       <c r="I45">
         <v>10637.329032258061</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>0.32214121342138524</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <v>0.27949149685940511</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="3">
         <v>0.28360162705354236</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="3">
         <v>0.24219512295504078</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <v>9.5758323458273134E-2</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <v>6.0411280766070989E-2</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <v>0.75398178257981052</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="3">
         <v>0.69740172507723575</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="5">
         <v>102.75</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -3311,38 +3311,38 @@
       <c r="I46">
         <v>1707.1302270011984</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <v>8.3543127653319699E-2</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <v>0.24406803545381142</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="3">
         <v>0.1053351154979331</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="3">
         <v>0.26908846594207092</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <v>-4.6531954608752334E-2</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <v>9.4722570634395528E-2</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="3">
         <v>-7.1602827830758761E-2</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="3">
         <v>6.5937493972091935E-2</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="5">
         <v>103.17</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -3370,38 +3370,38 @@
       <c r="I47">
         <v>2219.026455026451</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>0.25720255331132397</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <v>0.21230246212163378</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
         <v>0.27324255006225939</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
         <v>0.22776960184575076</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <v>0.15571541772191233</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <v>0.1144398670889868</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="3">
         <v>0.12042258624715819</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="3">
         <v>8.0407493881188119E-2</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="5">
         <v>103.35</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -3429,38 +3429,38 @@
       <c r="I48">
         <v>5246.2698412698373</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>0.14275441939767131</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <v>0.18507865715314062</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="3">
         <v>0.14352455839084405</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="3">
         <v>0.18587731981272693</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <v>0.15238697014102684</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <v>0.19506796903513904</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="3">
         <v>0.13395483772051708</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="3">
         <v>0.17595316504349909</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="5">
         <v>103.87</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S48" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -3488,38 +3488,38 @@
       <c r="I49">
         <v>-32929.67555555555</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
         <v>0.2816654426380471</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <v>0.38419867804909086</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="3">
         <v>-0.95930769703517127</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="3">
         <v>-0.95605231279798497</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <v>0.36978230943325791</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <v>0.47936489418791856</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="3">
         <v>-0.9436752724495584</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="3">
         <v>-0.93916929424552309</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="5">
         <v>104.04</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -3547,38 +3547,38 @@
       <c r="I50">
         <v>-2132.88</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3">
         <v>0.47652811155397806</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <v>0.27286906168446368</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="3">
         <v>-1</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <v>-1</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>0.5535919601413789</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>0.33930341391498164</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <v>-1</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="3">
         <v>-1</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="5">
         <v>104.69</v>
       </c>
-      <c r="S50" s="7">
+      <c r="S50" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -3606,10 +3606,10 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3">
         <v>0.88758153517879201</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <v>1.4881756600084073</v>
       </c>
       <c r="L51">
@@ -3618,10 +3618,10 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <v>-0.12017103856590741</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="3">
         <v>0.15977454007221298</v>
       </c>
       <c r="P51">
@@ -3630,14 +3630,14 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="5">
         <v>105.3</v>
       </c>
-      <c r="S51" s="7">
+      <c r="S51" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>3.9929390895352417</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <v>3.3937863987910135</v>
       </c>
       <c r="L52">
@@ -3677,10 +3677,10 @@
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <v>0.78506984684785719</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="3">
         <v>0.57086146522611436</v>
       </c>
       <c r="P52">
@@ -3689,14 +3689,14 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="5">
         <v>106.06</v>
       </c>
-      <c r="S52" s="7">
+      <c r="S52" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="3">
         <v>1.4467374491179692</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <v>1.0389478742649745</v>
       </c>
       <c r="L53">
@@ -3736,10 +3736,10 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>1.1256959157815374</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <v>0.77141326315128145</v>
       </c>
       <c r="P53">
@@ -3748,14 +3748,14 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="5">
         <v>106.85</v>
       </c>
-      <c r="S53" s="7">
+      <c r="S53" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -3783,10 +3783,10 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="3">
         <v>0.16017200486623506</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="3">
         <v>0.12274710148345347</v>
       </c>
       <c r="L54">
@@ -3795,10 +3795,10 @@
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <v>0.20454287952157399</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="3">
         <v>0.16568665760152304</v>
       </c>
       <c r="P54">
@@ -3807,14 +3807,14 @@
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="5">
         <v>107.56</v>
       </c>
-      <c r="S54" s="7">
+      <c r="S54" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3842,10 +3842,10 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
         <v>-7.2207776026966985E-2</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="3">
         <v>2.7198533684429146E-2</v>
       </c>
       <c r="L55">
@@ -3854,10 +3854,10 @@
       <c r="M55">
         <v>0</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <v>-6.8887062188251039E-2</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="3">
         <v>3.0875038291579185E-2</v>
       </c>
       <c r="P55">
@@ -3866,37 +3866,38 @@
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="5">
         <v>108.22</v>
       </c>
-      <c r="S55" s="7">
+      <c r="S55" s="6">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>5606.333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>-2912.484848484848</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>-1738.2355816226786</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>113.68709677419349</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>-141.71935483870959</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>931.29032258064456</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>1382.1956989247321</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>-1668.7440860215061</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>1471.1440860215062</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>8895.048484848483</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>2140.0365726227792</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>-5916.4445812807862</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>-1267.0426267281109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>931.72858731924407</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>289.65850945494913</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>-1084.2182795698918</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>8220.5666666666657</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>10637.329032258061</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>1707.1302270011984</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>2219.026455026451</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>5246.2698412698373</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>-32929.67555555555</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>-2132.88</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
